--- a/src/main/resources/FeatureConfiguration.xlsx
+++ b/src/main/resources/FeatureConfiguration.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{772017FE-D8EF-417C-97EB-FCFEDCD2D558}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECB16567-C531-4A8D-8DB1-4219A6AFBCAF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Features" sheetId="1" r:id="rId1"/>
@@ -436,7 +436,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -457,7 +457,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -477,8 +477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83A31F56-4175-4006-83C8-54F694A7B0F3}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -548,7 +548,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA5C3B48-D74F-497B-A84B-3ABD03A4135C}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>

--- a/src/main/resources/FeatureConfiguration.xlsx
+++ b/src/main/resources/FeatureConfiguration.xlsx
@@ -3,14 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECB16567-C531-4A8D-8DB1-4219A6AFBCAF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D8D835A-C5B1-4667-B973-B3670BC414D7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Features" sheetId="1" r:id="rId1"/>
     <sheet name="Scenarios" sheetId="2" r:id="rId2"/>
     <sheet name="Tags" sheetId="3" r:id="rId3"/>
+    <sheet name="Datatable" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="26">
   <si>
     <t>Feature Name</t>
   </si>
@@ -84,6 +85,27 @@
   </si>
   <si>
     <t>Features Name</t>
+  </si>
+  <si>
+    <t>Flight Search Feature two</t>
+  </si>
+  <si>
+    <t>search for multiple combinations scenario three</t>
+  </si>
+  <si>
+    <t>Depart</t>
+  </si>
+  <si>
+    <t>Arrival</t>
+  </si>
+  <si>
+    <t>ATL</t>
+  </si>
+  <si>
+    <t>DAL</t>
+  </si>
+  <si>
+    <t>MCO</t>
   </si>
 </sst>
 </file>
@@ -148,11 +170,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -433,18 +456,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -452,7 +475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -460,11 +483,19 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -475,20 +506,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83A31F56-4175-4006-83C8-54F694A7B0F3}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6328125" customWidth="1"/>
+    <col min="1" max="1" width="26.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -499,7 +530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -510,16 +541,16 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -527,16 +558,27 @@
         <v>8</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -552,12 +594,12 @@
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -565,7 +607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
@@ -573,7 +615,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
@@ -581,7 +623,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
@@ -589,7 +631,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>15</v>
       </c>
@@ -597,7 +639,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>16</v>
       </c>
@@ -605,7 +647,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
@@ -617,4 +659,51 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8073B79-7971-49FA-A19C-72D0F49EC980}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/main/resources/FeatureConfiguration.xlsx
+++ b/src/main/resources/FeatureConfiguration.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D8D835A-C5B1-4667-B973-B3670BC414D7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{056E862E-82EB-43CD-B815-B6A5C3F3CCC7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Features" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -458,7 +461,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -590,8 +593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA5C3B48-D74F-497B-A84B-3ABD03A4135C}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -628,7 +631,7 @@
         <v>14</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -652,7 +655,7 @@
         <v>17</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
